--- a/new_data_trier.xlsx
+++ b/new_data_trier.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W159"/>
+  <dimension ref="A1:U159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,20 +462,10 @@
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>ORB</t>
+          <t>obs</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Points_Produced</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Possessions_Used</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>ORtg</t>
         </is>
@@ -541,12 +531,6 @@
         <v>1.8</v>
       </c>
       <c r="U2">
-        <v>10.45</v>
-      </c>
-      <c r="V2">
-        <v>10.55</v>
-      </c>
-      <c r="W2">
         <v>99.0521327014218</v>
       </c>
     </row>
@@ -610,12 +594,6 @@
         <v>1.8</v>
       </c>
       <c r="U3">
-        <v>2.95</v>
-      </c>
-      <c r="V3">
-        <v>5.55</v>
-      </c>
-      <c r="W3">
         <v>53.15315315315316</v>
       </c>
     </row>
@@ -679,12 +657,6 @@
         <v>4.8</v>
       </c>
       <c r="U4">
-        <v>48.7</v>
-      </c>
-      <c r="V4">
-        <v>40.44</v>
-      </c>
-      <c r="W4">
         <v>120.4253214638971</v>
       </c>
     </row>
@@ -748,12 +720,6 @@
         <v>0.6</v>
       </c>
       <c r="U5">
-        <v>0.15</v>
-      </c>
-      <c r="V5">
-        <v>2.85</v>
-      </c>
-      <c r="W5">
         <v>5.263157894736842</v>
       </c>
     </row>
@@ -817,12 +783,6 @@
         <v>1.8</v>
       </c>
       <c r="U6">
-        <v>2.95</v>
-      </c>
-      <c r="V6">
-        <v>3.55</v>
-      </c>
-      <c r="W6">
         <v>83.09859154929579</v>
       </c>
     </row>
@@ -886,12 +846,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U7">
-        <v>11.225</v>
-      </c>
-      <c r="V7">
-        <v>6.775</v>
-      </c>
-      <c r="W7">
         <v>165.6826568265682</v>
       </c>
     </row>
@@ -955,12 +909,6 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>3.5</v>
-      </c>
-      <c r="V8">
-        <v>4.88</v>
-      </c>
-      <c r="W8">
         <v>71.72131147540983</v>
       </c>
     </row>
@@ -1023,12 +971,6 @@
       <c r="T9">
         <v>0</v>
       </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1089,12 +1031,6 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1155,12 +1091,6 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1221,12 +1151,6 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1288,12 +1212,6 @@
         <v>1.8</v>
       </c>
       <c r="U13">
-        <v>13.45</v>
-      </c>
-      <c r="V13">
-        <v>14.07</v>
-      </c>
-      <c r="W13">
         <v>95.59346126510306</v>
       </c>
     </row>
@@ -1357,12 +1275,6 @@
         <v>1.8</v>
       </c>
       <c r="U14">
-        <v>6.95</v>
-      </c>
-      <c r="V14">
-        <v>13.87</v>
-      </c>
-      <c r="W14">
         <v>50.10814708002884</v>
       </c>
     </row>
@@ -1426,12 +1338,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U15">
-        <v>7.225</v>
-      </c>
-      <c r="V15">
-        <v>6.535</v>
-      </c>
-      <c r="W15">
         <v>110.5585309869931</v>
       </c>
     </row>
@@ -1495,12 +1401,6 @@
         <v>3.6</v>
       </c>
       <c r="U16">
-        <v>27.4</v>
-      </c>
-      <c r="V16">
-        <v>28.5</v>
-      </c>
-      <c r="W16">
         <v>96.14035087719299</v>
       </c>
     </row>
@@ -1564,12 +1464,6 @@
         <v>1.5</v>
       </c>
       <c r="U17">
-        <v>2.375</v>
-      </c>
-      <c r="V17">
-        <v>4.625</v>
-      </c>
-      <c r="W17">
         <v>51.35135135135135</v>
       </c>
     </row>
@@ -1632,12 +1526,6 @@
       <c r="T18">
         <v>0</v>
       </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1699,12 +1587,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U19">
-        <v>8.225</v>
-      </c>
-      <c r="V19">
-        <v>9.775</v>
-      </c>
-      <c r="W19">
         <v>84.14322250639385</v>
       </c>
     </row>
@@ -1770,12 +1652,6 @@
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1836,12 +1712,6 @@
       <c r="T21">
         <v>0</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1903,12 +1773,6 @@
         <v>0.3</v>
       </c>
       <c r="U22">
-        <v>2.575</v>
-      </c>
-      <c r="V22">
-        <v>7.925</v>
-      </c>
-      <c r="W22">
         <v>32.49211356466877</v>
       </c>
     </row>
@@ -1971,12 +1835,6 @@
       <c r="T23">
         <v>0</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2038,12 +1896,6 @@
         <v>0.3</v>
       </c>
       <c r="U24">
-        <v>1.575</v>
-      </c>
-      <c r="V24">
-        <v>4.805</v>
-      </c>
-      <c r="W24">
         <v>32.77835587929241</v>
       </c>
     </row>
@@ -2107,12 +1959,6 @@
         <v>0.6</v>
       </c>
       <c r="U25">
-        <v>21.15</v>
-      </c>
-      <c r="V25">
-        <v>18.61</v>
-      </c>
-      <c r="W25">
         <v>113.6485760343901</v>
       </c>
     </row>
@@ -2176,12 +2022,6 @@
         <v>1.8</v>
       </c>
       <c r="U26">
-        <v>14.95</v>
-      </c>
-      <c r="V26">
-        <v>13.43</v>
-      </c>
-      <c r="W26">
         <v>111.3179448994788</v>
       </c>
     </row>
@@ -2245,12 +2085,6 @@
         <v>6</v>
       </c>
       <c r="U27">
-        <v>30.5</v>
-      </c>
-      <c r="V27">
-        <v>20.14</v>
-      </c>
-      <c r="W27">
         <v>151.4399205561072</v>
       </c>
     </row>
@@ -2314,12 +2148,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U28">
-        <v>5.225</v>
-      </c>
-      <c r="V28">
-        <v>4.775</v>
-      </c>
-      <c r="W28">
         <v>109.4240837696335</v>
       </c>
     </row>
@@ -2382,12 +2210,6 @@
       <c r="T29">
         <v>0</v>
       </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -2449,12 +2271,6 @@
         <v>0</v>
       </c>
       <c r="U30">
-        <v>4</v>
-      </c>
-      <c r="V30">
-        <v>3</v>
-      </c>
-      <c r="W30">
         <v>133.3333333333333</v>
       </c>
     </row>
@@ -2518,12 +2334,6 @@
         <v>0.3</v>
       </c>
       <c r="U31">
-        <v>2.075</v>
-      </c>
-      <c r="V31">
-        <v>0.925</v>
-      </c>
-      <c r="W31">
         <v>224.3243243243244</v>
       </c>
     </row>
@@ -2587,12 +2397,6 @@
         <v>0.6</v>
       </c>
       <c r="U32">
-        <v>19.65</v>
-      </c>
-      <c r="V32">
-        <v>14.85</v>
-      </c>
-      <c r="W32">
         <v>132.3232323232323</v>
       </c>
     </row>
@@ -2656,12 +2460,6 @@
         <v>1.8</v>
       </c>
       <c r="U33">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="V33">
-        <v>5.87</v>
-      </c>
-      <c r="W33">
         <v>169.5059625212947</v>
       </c>
     </row>
@@ -2725,12 +2523,6 @@
         <v>1.2</v>
       </c>
       <c r="U34">
-        <v>19.3</v>
-      </c>
-      <c r="V34">
-        <v>14.58</v>
-      </c>
-      <c r="W34">
         <v>132.3731138545953</v>
       </c>
     </row>
@@ -2794,12 +2586,6 @@
         <v>1.2</v>
       </c>
       <c r="U35">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="V35">
-        <v>6.7</v>
-      </c>
-      <c r="W35">
         <v>138.8059701492537</v>
       </c>
     </row>
@@ -2863,12 +2649,6 @@
         <v>3</v>
       </c>
       <c r="U36">
-        <v>53.75</v>
-      </c>
-      <c r="V36">
-        <v>35.01</v>
-      </c>
-      <c r="W36">
         <v>153.5275635532705</v>
       </c>
     </row>
@@ -2932,12 +2712,6 @@
         <v>0.3</v>
       </c>
       <c r="U37">
-        <v>4.075</v>
-      </c>
-      <c r="V37">
-        <v>0.925</v>
-      </c>
-      <c r="W37">
         <v>440.5405405405405</v>
       </c>
     </row>
@@ -3000,12 +2774,6 @@
       <c r="T38">
         <v>0</v>
       </c>
-      <c r="U38">
-        <v>0</v>
-      </c>
-      <c r="V38">
-        <v>0</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -3067,12 +2835,6 @@
         <v>0.6</v>
       </c>
       <c r="U39">
-        <v>4.15</v>
-      </c>
-      <c r="V39">
-        <v>3.85</v>
-      </c>
-      <c r="W39">
         <v>107.7922077922078</v>
       </c>
     </row>
@@ -3135,12 +2897,6 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -3201,12 +2957,6 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -3267,12 +3017,6 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -3334,12 +3078,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U43">
-        <v>6.725</v>
-      </c>
-      <c r="V43">
-        <v>9.655000000000001</v>
-      </c>
-      <c r="W43">
         <v>69.65302951838424</v>
       </c>
     </row>
@@ -3403,12 +3141,6 @@
         <v>0.6</v>
       </c>
       <c r="U44">
-        <v>10.15</v>
-      </c>
-      <c r="V44">
-        <v>7.85</v>
-      </c>
-      <c r="W44">
         <v>129.2993630573249</v>
       </c>
     </row>
@@ -3472,12 +3204,6 @@
         <v>1.8</v>
       </c>
       <c r="U45">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="V45">
-        <v>15.55</v>
-      </c>
-      <c r="W45">
         <v>54.34083601286173</v>
       </c>
     </row>
@@ -3541,12 +3267,6 @@
         <v>2.4</v>
       </c>
       <c r="U46">
-        <v>9.1</v>
-      </c>
-      <c r="V46">
-        <v>12.4</v>
-      </c>
-      <c r="W46">
         <v>73.38709677419354</v>
       </c>
     </row>
@@ -3610,12 +3330,6 @@
         <v>3.3</v>
       </c>
       <c r="U47">
-        <v>38.825</v>
-      </c>
-      <c r="V47">
-        <v>28.935</v>
-      </c>
-      <c r="W47">
         <v>134.180058752376</v>
       </c>
     </row>
@@ -3679,12 +3393,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U48">
-        <v>4.725</v>
-      </c>
-      <c r="V48">
-        <v>2.655</v>
-      </c>
-      <c r="W48">
         <v>177.9661016949152</v>
       </c>
     </row>
@@ -3747,12 +3455,6 @@
       <c r="T49">
         <v>0</v>
       </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -3814,12 +3516,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U50">
-        <v>2.725</v>
-      </c>
-      <c r="V50">
-        <v>2.775</v>
-      </c>
-      <c r="W50">
         <v>98.1981981981982</v>
       </c>
     </row>
@@ -3882,12 +3578,6 @@
       <c r="T51">
         <v>0</v>
       </c>
-      <c r="U51">
-        <v>0</v>
-      </c>
-      <c r="V51">
-        <v>0</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3948,12 +3638,6 @@
       <c r="T52">
         <v>0</v>
       </c>
-      <c r="U52">
-        <v>0</v>
-      </c>
-      <c r="V52">
-        <v>0</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -4014,12 +3698,6 @@
       <c r="T53">
         <v>0</v>
       </c>
-      <c r="U53">
-        <v>0</v>
-      </c>
-      <c r="V53">
-        <v>0</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -4081,12 +3759,6 @@
         <v>0.3</v>
       </c>
       <c r="U54">
-        <v>5.075</v>
-      </c>
-      <c r="V54">
-        <v>4.925</v>
-      </c>
-      <c r="W54">
         <v>103.0456852791878</v>
       </c>
     </row>
@@ -4150,12 +3822,6 @@
         <v>1.8</v>
       </c>
       <c r="U55">
-        <v>14.95</v>
-      </c>
-      <c r="V55">
-        <v>14.55</v>
-      </c>
-      <c r="W55">
         <v>102.7491408934708</v>
       </c>
     </row>
@@ -4219,12 +3885,6 @@
         <v>1.8</v>
       </c>
       <c r="U56">
-        <v>0.95</v>
-      </c>
-      <c r="V56">
-        <v>3.55</v>
-      </c>
-      <c r="W56">
         <v>26.76056338028169</v>
       </c>
     </row>
@@ -4288,12 +3948,6 @@
         <v>2.4</v>
       </c>
       <c r="U57">
-        <v>7.6</v>
-      </c>
-      <c r="V57">
-        <v>7.16</v>
-      </c>
-      <c r="W57">
         <v>106.145251396648</v>
       </c>
     </row>
@@ -4357,12 +4011,6 @@
         <v>4.5</v>
       </c>
       <c r="U58">
-        <v>17.625</v>
-      </c>
-      <c r="V58">
-        <v>19.075</v>
-      </c>
-      <c r="W58">
         <v>92.39842726081258</v>
       </c>
     </row>
@@ -4426,12 +4074,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U59">
-        <v>2.225</v>
-      </c>
-      <c r="V59">
-        <v>5.655</v>
-      </c>
-      <c r="W59">
         <v>39.34571175950487</v>
       </c>
     </row>
@@ -4497,12 +4139,6 @@
       <c r="U60">
         <v>0</v>
       </c>
-      <c r="V60">
-        <v>1</v>
-      </c>
-      <c r="W60">
-        <v>0</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -4564,12 +4200,6 @@
         <v>0.6</v>
       </c>
       <c r="U61">
-        <v>5.15</v>
-      </c>
-      <c r="V61">
-        <v>8.85</v>
-      </c>
-      <c r="W61">
         <v>58.19209039548024</v>
       </c>
     </row>
@@ -4632,12 +4262,6 @@
       <c r="T62">
         <v>0</v>
       </c>
-      <c r="U62">
-        <v>0</v>
-      </c>
-      <c r="V62">
-        <v>0</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -4699,12 +4323,6 @@
         <v>0</v>
       </c>
       <c r="U63">
-        <v>2</v>
-      </c>
-      <c r="V63">
-        <v>1</v>
-      </c>
-      <c r="W63">
         <v>200</v>
       </c>
     </row>
@@ -4767,12 +4385,6 @@
       <c r="T64">
         <v>0</v>
       </c>
-      <c r="U64">
-        <v>0</v>
-      </c>
-      <c r="V64">
-        <v>0</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -4834,12 +4446,6 @@
         <v>0.3</v>
       </c>
       <c r="U65">
-        <v>18.575</v>
-      </c>
-      <c r="V65">
-        <v>15.925</v>
-      </c>
-      <c r="W65">
         <v>116.6405023547881</v>
       </c>
     </row>
@@ -4902,12 +4508,6 @@
       <c r="T66">
         <v>0</v>
       </c>
-      <c r="U66">
-        <v>0</v>
-      </c>
-      <c r="V66">
-        <v>0</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -4969,12 +4569,6 @@
         <v>1.8</v>
       </c>
       <c r="U67">
-        <v>15.45</v>
-      </c>
-      <c r="V67">
-        <v>18.63</v>
-      </c>
-      <c r="W67">
         <v>82.93075684380032</v>
       </c>
     </row>
@@ -5038,12 +4632,6 @@
         <v>0.3</v>
       </c>
       <c r="U68">
-        <v>4.075</v>
-      </c>
-      <c r="V68">
-        <v>7.925</v>
-      </c>
-      <c r="W68">
         <v>51.41955835962145</v>
       </c>
     </row>
@@ -5107,12 +4695,6 @@
         <v>2.1</v>
       </c>
       <c r="U69">
-        <v>17.525</v>
-      </c>
-      <c r="V69">
-        <v>24.795</v>
-      </c>
-      <c r="W69">
         <v>70.67957249445452</v>
       </c>
     </row>
@@ -5176,12 +4758,6 @@
         <v>0.3</v>
       </c>
       <c r="U70">
-        <v>0.075</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
-      <c r="W70">
         <v>3.896103896103896</v>
       </c>
     </row>
@@ -5245,12 +4821,6 @@
         <v>1.8</v>
       </c>
       <c r="U71">
-        <v>3.95</v>
-      </c>
-      <c r="V71">
-        <v>7.55</v>
-      </c>
-      <c r="W71">
         <v>52.31788079470198</v>
       </c>
     </row>
@@ -5314,12 +4884,6 @@
         <v>0.6</v>
       </c>
       <c r="U72">
-        <v>0.15</v>
-      </c>
-      <c r="V72">
-        <v>3.85</v>
-      </c>
-      <c r="W72">
         <v>3.896103896103896</v>
       </c>
     </row>
@@ -5383,12 +4947,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U73">
-        <v>7.225</v>
-      </c>
-      <c r="V73">
-        <v>4.655</v>
-      </c>
-      <c r="W73">
         <v>155.2094522019334</v>
       </c>
     </row>
@@ -5451,12 +5009,6 @@
       <c r="T74">
         <v>0.8999999999999999</v>
       </c>
-      <c r="U74">
-        <v>0.225</v>
-      </c>
-      <c r="V74">
-        <v>-0.225</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -5518,12 +5070,6 @@
         <v>2.1</v>
       </c>
       <c r="U75">
-        <v>14.025</v>
-      </c>
-      <c r="V75">
-        <v>19.355</v>
-      </c>
-      <c r="W75">
         <v>72.4618961508654</v>
       </c>
     </row>
@@ -5587,12 +5133,6 @@
         <v>0.6</v>
       </c>
       <c r="U76">
-        <v>11.65</v>
-      </c>
-      <c r="V76">
-        <v>7.85</v>
-      </c>
-      <c r="W76">
         <v>148.4076433121019</v>
       </c>
     </row>
@@ -5656,12 +5196,6 @@
         <v>3.9</v>
       </c>
       <c r="U77">
-        <v>46.975</v>
-      </c>
-      <c r="V77">
-        <v>34.425</v>
-      </c>
-      <c r="W77">
         <v>136.4560639070443</v>
       </c>
     </row>
@@ -5724,12 +5258,6 @@
       <c r="T78">
         <v>0</v>
       </c>
-      <c r="U78">
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <v>0</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -5791,12 +5319,6 @@
         <v>0.6</v>
       </c>
       <c r="U79">
-        <v>4.15</v>
-      </c>
-      <c r="V79">
-        <v>6.609999999999999</v>
-      </c>
-      <c r="W79">
         <v>62.7836611195159</v>
       </c>
     </row>
@@ -5860,12 +5382,6 @@
         <v>0.3</v>
       </c>
       <c r="U80">
-        <v>9.074999999999999</v>
-      </c>
-      <c r="V80">
-        <v>6.925</v>
-      </c>
-      <c r="W80">
         <v>131.0469314079422</v>
       </c>
     </row>
@@ -5929,12 +5445,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U81">
-        <v>0.225</v>
-      </c>
-      <c r="V81">
-        <v>6.775</v>
-      </c>
-      <c r="W81">
         <v>3.321033210332103</v>
       </c>
     </row>
@@ -5998,12 +5508,6 @@
         <v>0</v>
       </c>
       <c r="U82">
-        <v>2</v>
-      </c>
-      <c r="V82">
-        <v>3</v>
-      </c>
-      <c r="W82">
         <v>66.66666666666666</v>
       </c>
     </row>
@@ -6067,12 +5571,6 @@
         <v>2.1</v>
       </c>
       <c r="U83">
-        <v>13.025</v>
-      </c>
-      <c r="V83">
-        <v>17.915</v>
-      </c>
-      <c r="W83">
         <v>72.70443762210439</v>
       </c>
     </row>
@@ -6136,12 +5634,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U84">
-        <v>6.725</v>
-      </c>
-      <c r="V84">
-        <v>14.775</v>
-      </c>
-      <c r="W84">
         <v>45.5160744500846</v>
       </c>
     </row>
@@ -6205,12 +5697,6 @@
         <v>3.6</v>
       </c>
       <c r="U85">
-        <v>21.9</v>
-      </c>
-      <c r="V85">
-        <v>17.42</v>
-      </c>
-      <c r="W85">
         <v>125.7175660160735</v>
       </c>
     </row>
@@ -6273,12 +5759,6 @@
       <c r="T86">
         <v>0</v>
       </c>
-      <c r="U86">
-        <v>0</v>
-      </c>
-      <c r="V86">
-        <v>0</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -6340,12 +5820,6 @@
         <v>1.5</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
-      </c>
-      <c r="V87">
-        <v>7.625</v>
-      </c>
-      <c r="W87">
         <v>24.59016393442623</v>
       </c>
     </row>
@@ -6409,12 +5883,6 @@
         <v>0.6</v>
       </c>
       <c r="U88">
-        <v>9.65</v>
-      </c>
-      <c r="V88">
-        <v>10.85</v>
-      </c>
-      <c r="W88">
         <v>88.94009216589862</v>
       </c>
     </row>
@@ -6477,12 +5945,6 @@
       <c r="T89">
         <v>0</v>
       </c>
-      <c r="U89">
-        <v>0</v>
-      </c>
-      <c r="V89">
-        <v>0</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -6544,12 +6006,6 @@
         <v>2.7</v>
       </c>
       <c r="U90">
-        <v>6.175</v>
-      </c>
-      <c r="V90">
-        <v>8.324999999999999</v>
-      </c>
-      <c r="W90">
         <v>74.17417417417418</v>
       </c>
     </row>
@@ -6613,12 +6069,6 @@
         <v>0.3</v>
       </c>
       <c r="U91">
-        <v>0.575</v>
-      </c>
-      <c r="V91">
-        <v>3.925</v>
-      </c>
-      <c r="W91">
         <v>14.64968152866242</v>
       </c>
     </row>
@@ -6682,12 +6132,6 @@
         <v>1.8</v>
       </c>
       <c r="U92">
-        <v>16.45</v>
-      </c>
-      <c r="V92">
-        <v>16.75</v>
-      </c>
-      <c r="W92">
         <v>98.20895522388059</v>
       </c>
     </row>
@@ -6751,12 +6195,6 @@
         <v>1.8</v>
       </c>
       <c r="U93">
-        <v>7.45</v>
-      </c>
-      <c r="V93">
-        <v>16.55</v>
-      </c>
-      <c r="W93">
         <v>45.01510574018127</v>
       </c>
     </row>
@@ -6819,12 +6257,6 @@
       <c r="T94">
         <v>0</v>
       </c>
-      <c r="U94">
-        <v>0</v>
-      </c>
-      <c r="V94">
-        <v>0</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -6886,12 +6318,6 @@
         <v>1.8</v>
       </c>
       <c r="U95">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="V95">
-        <v>18.55</v>
-      </c>
-      <c r="W95">
         <v>53.6388140161725</v>
       </c>
     </row>
@@ -6957,12 +6383,6 @@
       <c r="U96">
         <v>0</v>
       </c>
-      <c r="V96">
-        <v>1</v>
-      </c>
-      <c r="W96">
-        <v>0</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -7024,12 +6444,6 @@
         <v>4.2</v>
       </c>
       <c r="U97">
-        <v>10.55</v>
-      </c>
-      <c r="V97">
-        <v>16.71</v>
-      </c>
-      <c r="W97">
         <v>63.13584679832437</v>
       </c>
     </row>
@@ -7093,12 +6507,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U98">
-        <v>7.225</v>
-      </c>
-      <c r="V98">
-        <v>4.775</v>
-      </c>
-      <c r="W98">
         <v>151.3089005235602</v>
       </c>
     </row>
@@ -7162,12 +6570,6 @@
         <v>1.2</v>
       </c>
       <c r="U99">
-        <v>4.8</v>
-      </c>
-      <c r="V99">
-        <v>2.7</v>
-      </c>
-      <c r="W99">
         <v>177.7777777777778</v>
       </c>
     </row>
@@ -7231,12 +6633,6 @@
         <v>0.3</v>
       </c>
       <c r="U100">
-        <v>9.574999999999999</v>
-      </c>
-      <c r="V100">
-        <v>7.365</v>
-      </c>
-      <c r="W100">
         <v>130.0067888662593</v>
       </c>
     </row>
@@ -7300,12 +6696,6 @@
         <v>2.4</v>
       </c>
       <c r="U101">
-        <v>37.6</v>
-      </c>
-      <c r="V101">
-        <v>30.72</v>
-      </c>
-      <c r="W101">
         <v>122.3958333333333</v>
       </c>
     </row>
@@ -7368,12 +6758,6 @@
       <c r="T102">
         <v>0</v>
       </c>
-      <c r="U102">
-        <v>0.5</v>
-      </c>
-      <c r="V102">
-        <v>0</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -7435,12 +6819,6 @@
         <v>1.5</v>
       </c>
       <c r="U103">
-        <v>10.375</v>
-      </c>
-      <c r="V103">
-        <v>7.505</v>
-      </c>
-      <c r="W103">
         <v>138.2411725516322</v>
       </c>
     </row>
@@ -7504,12 +6882,6 @@
         <v>0.6</v>
       </c>
       <c r="U104">
-        <v>2.65</v>
-      </c>
-      <c r="V104">
-        <v>11.81</v>
-      </c>
-      <c r="W104">
         <v>22.43861134631668</v>
       </c>
     </row>
@@ -7573,12 +6945,6 @@
         <v>0</v>
       </c>
       <c r="U105">
-        <v>4</v>
-      </c>
-      <c r="V105">
-        <v>4</v>
-      </c>
-      <c r="W105">
         <v>100</v>
       </c>
     </row>
@@ -7642,12 +7008,6 @@
         <v>1.2</v>
       </c>
       <c r="U106">
-        <v>27.8</v>
-      </c>
-      <c r="V106">
-        <v>18.58</v>
-      </c>
-      <c r="W106">
         <v>149.6232508073197</v>
       </c>
     </row>
@@ -7711,12 +7071,6 @@
         <v>0.3</v>
       </c>
       <c r="U107">
-        <v>5.075</v>
-      </c>
-      <c r="V107">
-        <v>6.925</v>
-      </c>
-      <c r="W107">
         <v>73.28519855595668</v>
       </c>
     </row>
@@ -7780,12 +7134,6 @@
         <v>1.5</v>
       </c>
       <c r="U108">
-        <v>15.875</v>
-      </c>
-      <c r="V108">
-        <v>13.625</v>
-      </c>
-      <c r="W108">
         <v>116.5137614678899</v>
       </c>
     </row>
@@ -7849,12 +7197,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U109">
-        <v>5.725</v>
-      </c>
-      <c r="V109">
-        <v>9.775</v>
-      </c>
-      <c r="W109">
         <v>58.56777493606138</v>
       </c>
     </row>
@@ -7918,12 +7260,6 @@
         <v>3.9</v>
       </c>
       <c r="U110">
-        <v>33.475</v>
-      </c>
-      <c r="V110">
-        <v>24.345</v>
-      </c>
-      <c r="W110">
         <v>137.5025672622715</v>
       </c>
     </row>
@@ -7986,12 +7322,6 @@
       <c r="T111">
         <v>0</v>
       </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -8053,12 +7383,6 @@
         <v>0.3</v>
       </c>
       <c r="U112">
-        <v>9.574999999999999</v>
-      </c>
-      <c r="V112">
-        <v>7.805</v>
-      </c>
-      <c r="W112">
         <v>122.6777706598334</v>
       </c>
     </row>
@@ -8121,12 +7445,6 @@
       <c r="T113">
         <v>0</v>
       </c>
-      <c r="U113">
-        <v>0</v>
-      </c>
-      <c r="V113">
-        <v>0</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -8188,12 +7506,6 @@
         <v>2.7</v>
       </c>
       <c r="U114">
-        <v>18.675</v>
-      </c>
-      <c r="V114">
-        <v>14.085</v>
-      </c>
-      <c r="W114">
         <v>132.5878594249201</v>
       </c>
     </row>
@@ -8257,12 +7569,6 @@
         <v>0.3</v>
       </c>
       <c r="U115">
-        <v>7.075</v>
-      </c>
-      <c r="V115">
-        <v>9.925000000000001</v>
-      </c>
-      <c r="W115">
         <v>71.28463476070529</v>
       </c>
     </row>
@@ -8326,12 +7632,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U116">
-        <v>14.225</v>
-      </c>
-      <c r="V116">
-        <v>12.535</v>
-      </c>
-      <c r="W116">
         <v>113.4822497008376</v>
       </c>
     </row>
@@ -8397,12 +7697,6 @@
       <c r="U117">
         <v>0</v>
       </c>
-      <c r="V117">
-        <v>1</v>
-      </c>
-      <c r="W117">
-        <v>0</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118">
@@ -8464,12 +7758,6 @@
         <v>3.3</v>
       </c>
       <c r="U118">
-        <v>42.325</v>
-      </c>
-      <c r="V118">
-        <v>28.335</v>
-      </c>
-      <c r="W118">
         <v>149.3735662608082</v>
       </c>
     </row>
@@ -8533,12 +7821,6 @@
         <v>0</v>
       </c>
       <c r="U119">
-        <v>1</v>
-      </c>
-      <c r="V119">
-        <v>1.44</v>
-      </c>
-      <c r="W119">
         <v>69.44444444444444</v>
       </c>
     </row>
@@ -8601,12 +7883,6 @@
       <c r="T120">
         <v>0</v>
       </c>
-      <c r="U120">
-        <v>0</v>
-      </c>
-      <c r="V120">
-        <v>0</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121">
@@ -8668,12 +7944,6 @@
         <v>0</v>
       </c>
       <c r="U121">
-        <v>3.5</v>
-      </c>
-      <c r="V121">
-        <v>5.88</v>
-      </c>
-      <c r="W121">
         <v>59.52380952380953</v>
       </c>
     </row>
@@ -8737,12 +8007,6 @@
         <v>0.6</v>
       </c>
       <c r="U122">
-        <v>4.15</v>
-      </c>
-      <c r="V122">
-        <v>6.85</v>
-      </c>
-      <c r="W122">
         <v>60.58394160583942</v>
       </c>
     </row>
@@ -8806,12 +8070,6 @@
         <v>0</v>
       </c>
       <c r="U123">
-        <v>2</v>
-      </c>
-      <c r="V123">
-        <v>2</v>
-      </c>
-      <c r="W123">
         <v>100</v>
       </c>
     </row>
@@ -8875,12 +8133,6 @@
         <v>2.1</v>
       </c>
       <c r="U124">
-        <v>15.025</v>
-      </c>
-      <c r="V124">
-        <v>8.915000000000001</v>
-      </c>
-      <c r="W124">
         <v>168.5361749859787</v>
       </c>
     </row>
@@ -8944,12 +8196,6 @@
         <v>0.3</v>
       </c>
       <c r="U125">
-        <v>2.575</v>
-      </c>
-      <c r="V125">
-        <v>2.925</v>
-      </c>
-      <c r="W125">
         <v>88.03418803418805</v>
       </c>
     </row>
@@ -9013,12 +8259,6 @@
         <v>1.5</v>
       </c>
       <c r="U126">
-        <v>7.875</v>
-      </c>
-      <c r="V126">
-        <v>11.505</v>
-      </c>
-      <c r="W126">
         <v>68.44850065189047</v>
       </c>
     </row>
@@ -9082,12 +8322,6 @@
         <v>0.3</v>
       </c>
       <c r="U127">
-        <v>7.575</v>
-      </c>
-      <c r="V127">
-        <v>10.805</v>
-      </c>
-      <c r="W127">
         <v>70.10643220731141</v>
       </c>
     </row>
@@ -9151,12 +8385,6 @@
         <v>5.1</v>
       </c>
       <c r="U128">
-        <v>38.775</v>
-      </c>
-      <c r="V128">
-        <v>26.245</v>
-      </c>
-      <c r="W128">
         <v>147.7424271289769</v>
       </c>
     </row>
@@ -9219,12 +8447,6 @@
       <c r="T129">
         <v>0</v>
       </c>
-      <c r="U129">
-        <v>0</v>
-      </c>
-      <c r="V129">
-        <v>0</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130">
@@ -9286,12 +8508,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U130">
-        <v>6.725</v>
-      </c>
-      <c r="V130">
-        <v>11.775</v>
-      </c>
-      <c r="W130">
         <v>57.11252653927813</v>
       </c>
     </row>
@@ -9354,12 +8570,6 @@
       <c r="T131">
         <v>0.3</v>
       </c>
-      <c r="U131">
-        <v>0.075</v>
-      </c>
-      <c r="V131">
-        <v>-0.075</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132">
@@ -9421,12 +8631,6 @@
         <v>2.1</v>
       </c>
       <c r="U132">
-        <v>12.525</v>
-      </c>
-      <c r="V132">
-        <v>12.915</v>
-      </c>
-      <c r="W132">
         <v>96.9802555168409</v>
       </c>
     </row>
@@ -9490,12 +8694,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U133">
-        <v>9.725</v>
-      </c>
-      <c r="V133">
-        <v>6.655</v>
-      </c>
-      <c r="W133">
         <v>146.1307287753569</v>
       </c>
     </row>
@@ -9559,12 +8757,6 @@
         <v>0.6</v>
       </c>
       <c r="U134">
-        <v>5.15</v>
-      </c>
-      <c r="V134">
-        <v>9.85</v>
-      </c>
-      <c r="W134">
         <v>52.28426395939086</v>
       </c>
     </row>
@@ -9627,12 +8819,6 @@
       <c r="T135">
         <v>0</v>
       </c>
-      <c r="U135">
-        <v>0</v>
-      </c>
-      <c r="V135">
-        <v>0</v>
-      </c>
     </row>
     <row r="136">
       <c r="A136">
@@ -9694,12 +8880,6 @@
         <v>5.1</v>
       </c>
       <c r="U136">
-        <v>19.775</v>
-      </c>
-      <c r="V136">
-        <v>25.045</v>
-      </c>
-      <c r="W136">
         <v>78.95787582351765</v>
       </c>
     </row>
@@ -9765,12 +8945,6 @@
       <c r="U137">
         <v>0</v>
       </c>
-      <c r="V137">
-        <v>1</v>
-      </c>
-      <c r="W137">
-        <v>0</v>
-      </c>
     </row>
     <row r="138">
       <c r="A138">
@@ -9832,12 +9006,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U138">
-        <v>5.725</v>
-      </c>
-      <c r="V138">
-        <v>5.095000000000001</v>
-      </c>
-      <c r="W138">
         <v>112.3650637880275</v>
       </c>
     </row>
@@ -9901,12 +9069,6 @@
         <v>0</v>
       </c>
       <c r="U139">
-        <v>21.5</v>
-      </c>
-      <c r="V139">
-        <v>13.32</v>
-      </c>
-      <c r="W139">
         <v>161.4114114114114</v>
       </c>
     </row>
@@ -9969,12 +9131,6 @@
       <c r="T140">
         <v>0</v>
       </c>
-      <c r="U140">
-        <v>0</v>
-      </c>
-      <c r="V140">
-        <v>0</v>
-      </c>
     </row>
     <row r="141">
       <c r="A141">
@@ -10036,12 +9192,6 @@
         <v>1.8</v>
       </c>
       <c r="U141">
-        <v>15.95</v>
-      </c>
-      <c r="V141">
-        <v>12.43</v>
-      </c>
-      <c r="W141">
         <v>128.3185840707964</v>
       </c>
     </row>
@@ -10105,12 +9255,6 @@
         <v>0.6</v>
       </c>
       <c r="U142">
-        <v>0.65</v>
-      </c>
-      <c r="V142">
-        <v>0.85</v>
-      </c>
-      <c r="W142">
         <v>76.47058823529413</v>
       </c>
     </row>
@@ -10174,12 +9318,6 @@
         <v>2.4</v>
       </c>
       <c r="U143">
-        <v>14.1</v>
-      </c>
-      <c r="V143">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="W143">
         <v>161.697247706422</v>
       </c>
     </row>
@@ -10243,12 +9381,6 @@
         <v>0.6</v>
       </c>
       <c r="U144">
-        <v>6.65</v>
-      </c>
-      <c r="V144">
-        <v>4.85</v>
-      </c>
-      <c r="W144">
         <v>137.1134020618557</v>
       </c>
     </row>
@@ -10312,12 +9444,6 @@
         <v>3.3</v>
       </c>
       <c r="U145">
-        <v>47.825</v>
-      </c>
-      <c r="V145">
-        <v>33.175</v>
-      </c>
-      <c r="W145">
         <v>144.1597588545592</v>
       </c>
     </row>
@@ -10383,12 +9509,6 @@
       <c r="U146">
         <v>0</v>
       </c>
-      <c r="V146">
-        <v>1</v>
-      </c>
-      <c r="W146">
-        <v>0</v>
-      </c>
     </row>
     <row r="147">
       <c r="A147">
@@ -10450,12 +9570,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U147">
-        <v>4.725</v>
-      </c>
-      <c r="V147">
-        <v>3.775</v>
-      </c>
-      <c r="W147">
         <v>125.1655629139073</v>
       </c>
     </row>
@@ -10519,12 +9633,6 @@
         <v>1.8</v>
       </c>
       <c r="U148">
-        <v>20.45</v>
-      </c>
-      <c r="V148">
-        <v>14.55</v>
-      </c>
-      <c r="W148">
         <v>140.5498281786942</v>
       </c>
     </row>
@@ -10587,12 +9695,6 @@
       <c r="T149">
         <v>0</v>
       </c>
-      <c r="U149">
-        <v>0</v>
-      </c>
-      <c r="V149">
-        <v>0</v>
-      </c>
     </row>
     <row r="150">
       <c r="A150">
@@ -10654,12 +9756,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U150">
-        <v>6.225</v>
-      </c>
-      <c r="V150">
-        <v>5.775</v>
-      </c>
-      <c r="W150">
         <v>107.7922077922078</v>
       </c>
     </row>
@@ -10723,12 +9819,6 @@
         <v>0.3</v>
       </c>
       <c r="U151">
-        <v>4.075</v>
-      </c>
-      <c r="V151">
-        <v>4.925</v>
-      </c>
-      <c r="W151">
         <v>82.74111675126903</v>
       </c>
     </row>
@@ -10792,12 +9882,6 @@
         <v>1.8</v>
       </c>
       <c r="U152">
-        <v>3.95</v>
-      </c>
-      <c r="V152">
-        <v>7.55</v>
-      </c>
-      <c r="W152">
         <v>52.31788079470198</v>
       </c>
     </row>
@@ -10861,12 +9945,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U153">
-        <v>6.725</v>
-      </c>
-      <c r="V153">
-        <v>6.655</v>
-      </c>
-      <c r="W153">
         <v>101.0518407212622</v>
       </c>
     </row>
@@ -10930,12 +10008,6 @@
         <v>4.2</v>
       </c>
       <c r="U154">
-        <v>33.05</v>
-      </c>
-      <c r="V154">
-        <v>20.27</v>
-      </c>
-      <c r="W154">
         <v>163.0488406512087</v>
       </c>
     </row>
@@ -10999,12 +10071,6 @@
         <v>0.6</v>
       </c>
       <c r="U155">
-        <v>0.15</v>
-      </c>
-      <c r="V155">
-        <v>0.85</v>
-      </c>
-      <c r="W155">
         <v>17.64705882352941</v>
       </c>
     </row>
@@ -11068,12 +10134,6 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="U156">
-        <v>3.225</v>
-      </c>
-      <c r="V156">
-        <v>7.215000000000001</v>
-      </c>
-      <c r="W156">
         <v>44.69854469854469</v>
       </c>
     </row>
@@ -11137,12 +10197,6 @@
         <v>2.1</v>
       </c>
       <c r="U157">
-        <v>20.525</v>
-      </c>
-      <c r="V157">
-        <v>17.355</v>
-      </c>
-      <c r="W157">
         <v>118.2656295015845</v>
       </c>
     </row>
@@ -11206,12 +10260,6 @@
         <v>0</v>
       </c>
       <c r="U158">
-        <v>2</v>
-      </c>
-      <c r="V158">
-        <v>6</v>
-      </c>
-      <c r="W158">
         <v>33.33333333333333</v>
       </c>
     </row>
@@ -11275,12 +10323,6 @@
         <v>3.6</v>
       </c>
       <c r="U159">
-        <v>17.9</v>
-      </c>
-      <c r="V159">
-        <v>12.42</v>
-      </c>
-      <c r="W159">
         <v>144.122383252818</v>
       </c>
     </row>
